--- a/utils/cleaners/bot/eliminados/Eliminados_equipos.xlsx
+++ b/utils/cleaners/bot/eliminados/Eliminados_equipos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF16"/>
+  <dimension ref="A1:AF17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -597,11 +597,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>19/04</t>
+          <t>13/04</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -609,115 +609,123 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>vilda.gomez.cfk2022@gmail.com</t>
+          <t>lorena.molina.britishcouncil@gmail.com</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Una</t>
+          <t>Dos</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Algunas sí, pero no todas</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Video proyector</t>
+          <t>Televisor, Sistema de audio, Video proyector</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Redes eléctricas, Módem</t>
+          <t>Puertos de cableado estructurado para conexión a la red, Módem</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t xml:space="preserve">el video beam se encuentra en la sala de informática. </t>
+          <t>thrtyrtytytytyey</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="N2" t="n">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>Algunos de ellos</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Windows 7 o superior (64 bits)</t>
+          <t>Windows 7 o superior (32 bits), Windows 7 o superior (64 bits), Android</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office)</t>
+          <t>Ninguno de los anteriores</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>La conexión a internet en ocasiones presenta intermitencia.</t>
+          <t>wefewffew</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v>23</v>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>En la sede el rector y docente líder informan no tener microbit ya que el docente que registra formado no labora en dicha institución y manifiestan no haberlo conocido.</t>
+          <t>Arduino, Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>En la sede el rector y docente líder informan no tener microbit ya que el docente que registra formado no labora en dicha institución y manifiestan no haberlo conocido.</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+          <t>Sensores, LEDs, Servomotores, Cables cocodrilo, Pelacables, gsfgdg</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr"/>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>rttyer</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -729,7 +737,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>alyar26@gmail.com</t>
+          <t>vilda.gomez.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -747,23 +755,27 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>No hay más dispositivos en las aulas</t>
+          <t>Video proyector</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Módem</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
+          <t>Redes eléctricas, Módem</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">el video beam se encuentra en la sala de informática. </t>
+        </is>
+      </c>
       <c r="M3" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="O3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -776,16 +788,16 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office), Lenguaje de programación (Ej. MakeCode), Paquete de software educativo (Ej. cursos de inglés)</t>
+          <t>Paquete de oficina (Ej. Microsoft Office)</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Los computadores a menudo se bloqueando congelan</t>
+          <t>La conexión a internet en ocasiones presenta intermitencia.</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -798,18 +810,22 @@
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>Tarjetas micro:bit.</t>
+          <t>En la sede el rector y docente líder informan no tener microbit ya que el docente que registra formado no labora en dicha institución y manifiestan no haberlo conocido.</t>
         </is>
       </c>
       <c r="Z3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>LEDs</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr"/>
+          <t>En la sede el rector y docente líder informan no tener microbit ya que el docente que registra formado no labora en dicha institución y manifiestan no haberlo conocido.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="AC3" t="inlineStr">
         <is>
           <t>No</t>
@@ -822,18 +838,18 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20/04</t>
+          <t>19/04</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -841,25 +857,25 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>rmontenegroc@iejega.edu.co</t>
+          <t>alyar26@gmail.com</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dos</t>
+          <t>Una</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Algunas sí, pero no todas</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Sistema de audio, Video proyector</t>
+          <t>No hay más dispositivos en las aulas</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -867,23 +883,19 @@
           <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Módem</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Se cuenta con tablets y Kits de robotica</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N4" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="O4" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -892,56 +904,48 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office), Lenguaje de programación (Ej. MakeCode)</t>
+          <t>Paquete de oficina (Ej. Microsoft Office), Lenguaje de programación (Ej. MakeCode), Paquete de software educativo (Ej. cursos de inglés)</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Construct, mecanet, scratch, pseint, </t>
+          <t>Los computadores a menudo se bloqueando congelan</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="V4" t="n">
-        <v>100</v>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>Arduino, Tarjetas micro:bit.</t>
+          <t>Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z4" t="n">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Sensores, LEDs, Servomotores, Cables cocodrilo, Tarjetas expansoras GPIO para micro:bit</t>
+          <t>LEDs</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -953,11 +957,11 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21/04</t>
+          <t>20/04</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -965,50 +969,54 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>monica.cristancho.cfk2022@gmail.com</t>
+          <t>rmontenegroc@iejega.edu.co</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tres</t>
+          <t>Dos</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Algunas sí, pero no todas</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Televisor, Video proyector</t>
+          <t>Sistema de audio, Video proyector</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Módem</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Se cuenta con tablets y Kits de robotica</t>
+        </is>
+      </c>
       <c r="M5" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Algunos de ellos</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Windows 7 o superior (32 bits)</t>
+          <t>Windows 7 o superior (64 bits)</t>
         </is>
       </c>
       <c r="R5" t="n">
@@ -1016,12 +1024,12 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office)</t>
+          <t>Paquete de oficina (Ej. Microsoft Office), Lenguaje de programación (Ej. MakeCode)</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>Conexión intermitente</t>
+          <t xml:space="preserve">Construct, mecanet, scratch, pseint, </t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1030,11 +1038,11 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="X5" t="n">
@@ -1042,50 +1050,42 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>Tarjetas micro:bit.</t>
+          <t>Arduino, Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z5" t="n">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>LEDs, Cables cocodrilo, Protobord, resistencias</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>Casi no se trabaja esa parte práctica.</t>
-        </is>
-      </c>
+          <t>Sensores, LEDs, Servomotores, Cables cocodrilo, Tarjetas expansoras GPIO para micro:bit</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">No hay recursos </t>
-        </is>
-      </c>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>26/04</t>
+          <t>21/04</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -1093,49 +1093,45 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>colmisericordiasol@hotmail.com</t>
+          <t>monica.cristancho.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dos</t>
+          <t>Tres</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Televisor, Sistema de audio, Video proyector</t>
+          <t>Televisor, Video proyector</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Módem</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Ninguna</t>
-        </is>
-      </c>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>Algunos de ellos</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1153,31 +1149,43 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>Insuficiente el numero de equipos de computadores.</t>
+          <t>Conexión intermitente</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>10</v>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>No hay ningún elemento adicional a las micro:bits</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr"/>
+          <t>LEDs, Cables cocodrilo, Protobord, resistencias</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Casi no se trabaja esa parte práctica.</t>
+        </is>
+      </c>
       <c r="AC6" t="inlineStr">
         <is>
           <t>No</t>
@@ -1193,11 +1201,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No hay recursos </t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1209,7 +1221,7 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>20168385@inempasto.edu.co</t>
+          <t>colmisericordiasol@hotmail.com</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1219,89 +1231,81 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>No hay más dispositivos en las aulas</t>
+          <t>Televisor, Sistema de audio, Video proyector</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Puertos de cableado estructurado para conexión a la red</t>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Módem</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>ninguna</t>
+          <t>Ninguna</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="O7" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Windows 7 o superior (64 bits)</t>
+          <t>Windows 7 o superior (32 bits)</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc), Paquete de software educativo (Ej. cursos de inglés)</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr"/>
+          <t>Paquete de oficina (Ej. Microsoft Office)</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Insuficiente el numero de equipos de computadores.</t>
+        </is>
+      </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="V7" t="n">
-        <v>24</v>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="X7" t="n">
-        <v>12</v>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>Raspberry Pi, Arduino, Tarjetas micro:bit.</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>No hay ningún elemento adicional a las micro:bits, LEDs, Servomotores, Soldadura electrónica, Cautines</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>no se</t>
-        </is>
-      </c>
+          <t>No hay ningún elemento adicional a las micro:bits</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr">
         <is>
           <t>No</t>
@@ -1314,22 +1318,18 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>03/05</t>
+          <t>26/04</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -1337,12 +1337,12 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>camilo.villota.cfk2022@gmail.com</t>
+          <t>20168385@inempasto.edu.co</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Una</t>
+          <t>Dos</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1351,31 +1351,35 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>No hay más dispositivos en las aulas, Solamente tienen 1 videobeam y un TV de 60'</t>
+          <t>No hay más dispositivos en las aulas</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>No hay ninguna infraestructura de telecomunicaciones, La antena de MinTIC</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
+          <t>Puertos de cableado estructurado para conexión a la red</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ninguna</t>
+        </is>
+      </c>
       <c r="M8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
+        <v>28</v>
+      </c>
+      <c r="O8" t="n">
         <v>20</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Algunos de ellos</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1384,11 +1388,11 @@
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office), Aplicación del Ministerio que inicia automaticamente</t>
+          <t>Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc), Paquete de software educativo (Ej. cursos de inglés)</t>
         </is>
       </c>
       <c r="T8" t="inlineStr"/>
@@ -1398,30 +1402,34 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>No se tiene ningún tipo de microprocesador</t>
+          <t>Raspberry Pi, Arduino, Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>No hay ningún elemento adicional a las micro:bits</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr"/>
+          <t>No hay ningún elemento adicional a las micro:bits, LEDs, Servomotores, Soldadura electrónica, Cautines</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>no se</t>
+        </is>
+      </c>
       <c r="AC8" t="inlineStr">
         <is>
           <t>No</t>
@@ -1434,14 +1442,18 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr"/>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1453,12 +1465,12 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>d.eus.jorge.mosquera@cali.edu.co</t>
+          <t>camilo.villota.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cinco</t>
+          <t>Una</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1471,27 +1483,27 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Video proyector</t>
+          <t>No hay más dispositivos en las aulas, Solamente tienen 1 videobeam y un TV de 60'</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>No hay ninguna infraestructura de telecomunicaciones</t>
+          <t>No hay ninguna infraestructura de telecomunicaciones, La antena de MinTIC</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="N9" t="n">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="O9" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>Algunos de ellos</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1504,7 +1516,7 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office), Lenguaje de programación (Ej. MakeCode), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc)</t>
+          <t>Paquete de oficina (Ej. Microsoft Office), Aplicación del Ministerio que inicia automaticamente</t>
         </is>
       </c>
       <c r="T9" t="inlineStr"/>
@@ -1514,7 +1526,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1526,50 +1538,42 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>Tarjetas micro:bit.</t>
+          <t>No se tiene ningún tipo de microprocesador</t>
         </is>
       </c>
       <c r="Z9" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>No hay ningún elemento adicional a las micro:bits</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>Tarjetas TecPro</t>
-        </is>
-      </c>
+      <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>TecPro Norma</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>04/05</t>
+          <t>03/05</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -1577,12 +1581,12 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>azriel2397@gmail.com</t>
+          <t>d.eus.jorge.mosquera@cali.edu.co</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Tres</t>
+          <t>Cinco</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1595,31 +1599,27 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Televisor, Video proyector, algunos con video proyector</t>
+          <t>Video proyector</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Módem</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>La red brinda internet solo a las salas de sistemas.</t>
-        </is>
-      </c>
+          <t>No hay ninguna infraestructura de telecomunicaciones</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>97</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Algunos de ellos</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1632,68 +1632,72 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office)</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>La mayoría son obsoletos. El tablero digital no cuenta el cable para su funcionamiento</t>
-        </is>
-      </c>
+          <t>Paquete de oficina (Ej. Microsoft Office), Lenguaje de programación (Ej. MakeCode), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc)</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>No hay, posiblemente.</t>
+          <t>Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>no hay</t>
+          <t>No hay ningún elemento adicional a las micro:bits</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>La conectividad funciona en las salas (3)</t>
+          <t>Tarjetas TecPro</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t xml:space="preserve">No se conoce de recursos para actividades desconectadas. </t>
+          <t>TecPro Norma</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>05/05</t>
+          <t>04/05</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -1701,7 +1705,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>monica.cristancho.cfk2022@gmail.com</t>
+          <t>azriel2397@gmail.com</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1719,31 +1723,31 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Televisor</t>
+          <t>Televisor, Video proyector, algunos con video proyector</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Redes eléctricas</t>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Módem</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t xml:space="preserve">En el colegio no hay internet y la red eléctrica esta muy deteriorada. La institución cuenta con una sala de audiovisuales pero generalmente no la utiliza el área de tecnología ni ninguna otra área. </t>
+          <t>La red brinda internet solo a las salas de sistemas.</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="N11" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Algunos de ellos</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1761,7 +1765,7 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Los equipos en su mayoría cuentan con el paquete de office únicamente. </t>
+          <t>La mayoría son obsoletos. El tablero digital no cuenta el cable para su funcionamiento</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -1774,20 +1778,20 @@
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>Tarjetas micro:bit.</t>
+          <t>No hay, posiblemente.</t>
         </is>
       </c>
       <c r="Z11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Kit Chicas Stem Convenio con Maloka</t>
+          <t>no hay</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t xml:space="preserve">El año pasado se trabajó con algunas estudiantes en la estrategias chicas STEM de Maloka y recibieron un kit para la institución  educativa. </t>
+          <t>La conectividad funciona en las salas (3)</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
@@ -1797,7 +1801,7 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
@@ -1807,13 +1811,13 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cuentan con un kit de chicas Stem </t>
+          <t xml:space="preserve">No se conoce de recursos para actividades desconectadas. </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1825,12 +1829,12 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>margaritas_421@hotmail.com</t>
+          <t>monica.cristancho.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Dos</t>
+          <t>Tres</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1843,36 +1847,36 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Televisor, Algunas aulas con TV</t>
+          <t>Televisor</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Puertos de cableado estructurado para conexión a la red</t>
+          <t>Redes eléctricas</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Las salas de sistemas tienen internet intermitente. Sede rural </t>
+          <t xml:space="preserve">En el colegio no hay internet y la red eléctrica esta muy deteriorada. La institución cuenta con una sala de audiovisuales pero generalmente no la utiliza el área de tecnología ni ninguna otra área. </t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N12" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Algunos de ellos</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Windows 7 o superior (32 bits), Windows 7 o superior (64 bits)</t>
+          <t>Windows 7 o superior (64 bits)</t>
         </is>
       </c>
       <c r="R12" t="n">
@@ -1883,39 +1887,35 @@
           <t>Paquete de oficina (Ej. Microsoft Office)</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Los equipos en su mayoría cuentan con el paquete de office únicamente. </t>
+        </is>
+      </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="V12" t="n">
-        <v>9</v>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z12" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>No sabe la docente de informática de primaria</t>
+          <t>Kit Chicas Stem Convenio con Maloka</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entrevista a lider tecnología primaria. Notifica que desconoce que elementos hay en la IE. </t>
+          <t xml:space="preserve">El año pasado se trabajó con algunas estudiantes en la estrategias chicas STEM de Maloka y recibieron un kit para la institución  educativa. </t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
@@ -1933,15 +1933,19 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cuentan con un kit de chicas Stem </t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11/05</t>
+          <t>05/05</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1949,7 +1953,7 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>lady.mora.cfk2022@gmail.com</t>
+          <t>margaritas_421@hotmail.com</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1959,7 +1963,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Algunas sí, pero no todas</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1967,7 +1971,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>No hay más dispositivos en las aulas</t>
+          <t>Televisor, Algunas aulas con TV</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1975,19 +1979,23 @@
           <t>Puertos de cableado estructurado para conexión a la red</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Las salas de sistemas tienen internet intermitente. Sede rural </t>
+        </is>
+      </c>
       <c r="M13" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N13" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>Algunos de ellos</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -2003,18 +2011,14 @@
           <t>Paquete de oficina (Ej. Microsoft Office)</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>Hay dos salas de electrónica, cuentan con algunos elementos y herramientas para la clase.</t>
-        </is>
-      </c>
+      <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
           <t>Sí</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
@@ -2026,18 +2030,22 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>Arduino, Tarjetas micro:bit.</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="Z13" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>LEDs, Cables cocodrilo, Soldadura electrónica, Cautines, Pinzas</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr"/>
+          <t>No sabe la docente de informática de primaria</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entrevista a lider tecnología primaria. Notifica que desconoce que elementos hay en la IE. </t>
+        </is>
+      </c>
       <c r="AC13" t="inlineStr">
         <is>
           <t>No</t>
@@ -2057,7 +2065,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -2074,12 +2082,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>No hay salas de sistemas</t>
+          <t>Dos</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Algunas sí, pero no todas</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -2092,31 +2100,27 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>No hay ninguna infraestructura de telecomunicaciones</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>No hay salas de sistemas, ni computadores dentro de la institución educativa.</t>
-        </is>
-      </c>
+          <t>Puertos de cableado estructurado para conexión a la red</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>No hay computador.</t>
+          <t>Windows 7 o superior (32 bits), Windows 7 o superior (64 bits)</t>
         </is>
       </c>
       <c r="R14" t="n">
@@ -2124,33 +2128,41 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>Ninguno de los anteriores</t>
+          <t>Paquete de oficina (Ej. Microsoft Office)</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>No hay salas de sistemas, no hay computadores, no hay algún otro dispositivo</t>
+          <t>Hay dos salas de electrónica, cuentan con algunos elementos y herramientas para la clase.</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V14" t="n">
+        <v>15</v>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>Arduino, Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z14" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>No hay ningún elemento adicional a las micro:bits</t>
+          <t>LEDs, Cables cocodrilo, Soldadura electrónica, Cautines, Pinzas</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr"/>
@@ -2161,7 +2173,7 @@
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
@@ -2173,11 +2185,11 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>12/05</t>
+          <t>11/05</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -2185,12 +2197,12 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>facilcontar@gmail.com</t>
+          <t>lady.mora.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Dos</t>
+          <t>No hay salas de sistemas</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2203,36 +2215,36 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Televisor</t>
+          <t>No hay más dispositivos en las aulas</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red</t>
+          <t>No hay ninguna infraestructura de telecomunicaciones</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Una sala con cableado red y otro inhalambrado</t>
+          <t>No hay salas de sistemas, ni computadores dentro de la institución educativa.</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Algunos de ellos</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Windows 7 o superior (64 bits)</t>
+          <t>No hay computador.</t>
         </is>
       </c>
       <c r="R15" t="n">
@@ -2240,10 +2252,14 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office)</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr"/>
+          <t>Ninguno de los anteriores</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>No hay salas de sistemas, no hay computadores, no hay algún otro dispositivo</t>
+        </is>
+      </c>
       <c r="U15" t="inlineStr">
         <is>
           <t>No</t>
@@ -2254,15 +2270,15 @@
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ninguno. No sabe </t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No hay ningún elemento adicional a las micro:bits</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr"/>
@@ -2273,7 +2289,7 @@
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
@@ -2281,19 +2297,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>Docente de tecnología aplicada al área técnica, no sabe si hay microbit en el colegio no participó años anteriores.</t>
-        </is>
-      </c>
+      <c r="AF15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>20/05</t>
+          <t>12/05</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -2301,12 +2313,12 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>claudia3dc@gmail.com</t>
+          <t>facilcontar@gmail.com</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Tres</t>
+          <t>Dos</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2319,36 +2331,36 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Sistema de audio, Video proyector, altavoz</t>
+          <t>Televisor</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>No hay ninguna infraestructura de telecomunicaciones, Redes eléctricas, Puertos de cableado estructurado para conexión a la red, conexión a fibra óptica</t>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>el sistema de audio que hay, es a nivel institucional, no por cada aula</t>
+          <t>Una sala con cableado red y otro inhalambrado</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="N16" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>Algunos de ellos</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Windows 7 o superior (64 bits), windows 10</t>
+          <t>Windows 7 o superior (64 bits)</t>
         </is>
       </c>
       <c r="R16" t="n">
@@ -2356,15 +2368,10 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc), Paquete de software educativo (Ej. cursos de inglés)</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>Para el buen desarrollo de la media técnica en Diseño Multimedia y Elaboración de Audiovisuales, se requiere dotación de equipos indispensables, de esto depende que los y las estudiantes puedan adquirir las competencias que les permita alcanzar satisfactoriamente la certificación otorgada por el SENA. 
-A la fecha el aula de sistemas 2, cuenta con un  total de 29 equipos, de ellos 18 cuentan con Procesadores Intel® Core™ i7 de 10ᵃ Generación, aptos para soportar los Software y llevar a cabo los procesos prácticos del plan de estudios, el resto (11) están desactualizados, evidencian el deterioro e insuficiencia propio de un modelo ya en desuso que carece de las especificaciones necesarias para ser utilizados a cabalidad en consonancia con las nuevas tecnologías y las versiones de los programas requeridos.</t>
-        </is>
-      </c>
+          <t>Paquete de oficina (Ej. Microsoft Office)</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
           <t>No</t>
@@ -2375,38 +2382,159 @@
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr">
         <is>
+          <t xml:space="preserve">Ninguno. No sabe </t>
+        </is>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>Docente de tecnología aplicada al área técnica, no sabe si hay microbit en el colegio no participó años anteriores.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>245</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>20/05</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>claudia3dc@gmail.com</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Tres</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Sistema de audio, Video proyector, altavoz</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>No hay ninguna infraestructura de telecomunicaciones, Redes eléctricas, Puertos de cableado estructurado para conexión a la red, conexión a fibra óptica</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>el sistema de audio que hay, es a nivel institucional, no por cada aula</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>127</v>
+      </c>
+      <c r="N17" t="n">
+        <v>100</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Windows 7 o superior (64 bits), windows 10</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Paquete de oficina (Ej. Microsoft Office), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc), Paquete de software educativo (Ej. cursos de inglés)</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Para el buen desarrollo de la media técnica en Diseño Multimedia y Elaboración de Audiovisuales, se requiere dotación de equipos indispensables, de esto depende que los y las estudiantes puedan adquirir las competencias que les permita alcanzar satisfactoriamente la certificación otorgada por el SENA. 
+A la fecha el aula de sistemas 2, cuenta con un  total de 29 equipos, de ellos 18 cuentan con Procesadores Intel® Core™ i7 de 10ᵃ Generación, aptos para soportar los Software y llevar a cabo los procesos prácticos del plan de estudios, el resto (11) están desactualizados, evidencian el deterioro e insuficiencia propio de un modelo ya en desuso que carece de las especificaciones necesarias para ser utilizados a cabalidad en consonancia con las nuevas tecnologías y las versiones de los programas requeridos.</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr">
+        <is>
           <t>No tenemos  NINGUNO</t>
         </is>
       </c>
-      <c r="Z16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="inlineStr">
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="inlineStr">
         <is>
           <t>NO CONTAMOS CON ESTOS ELEMENTOS</t>
         </is>
       </c>
-      <c r="AB16" t="inlineStr">
+      <c r="AB17" t="inlineStr">
         <is>
           <t>En el momento no se cuenta con herramientas para el desarrollo de proyectos de computación física</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
         <is>
           <t>No se cuenta con estos elementos en la institución</t>
         </is>

--- a/utils/cleaners/bot/eliminados/Eliminados_equipos.xlsx
+++ b/utils/cleaners/bot/eliminados/Eliminados_equipos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF17"/>
+  <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1453,11 +1453,11 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>03/05</t>
+          <t>27/04</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -1465,45 +1465,45 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>camilo.villota.cfk2022@gmail.com</t>
+          <t>vilda.gomez.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Una</t>
+          <t>Dos</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Algunas sí, pero no todas</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>No hay más dispositivos en las aulas, Solamente tienen 1 videobeam y un TV de 60'</t>
+          <t>El docente que necesita videoproyector lo lleva al aula de clases.</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>No hay ninguna infraestructura de telecomunicaciones, La antena de MinTIC</t>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Módem</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="N9" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Algunos de ellos</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1516,21 +1516,25 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office), Aplicación del Ministerio que inicia automaticamente</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr"/>
+          <t>Paquete de oficina (Ej. Microsoft Office), Lenguaje de programación (Ej. MakeCode), Audacity</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>En ocasiones la conectividad presenta lentitud y los computadores demoran para cargar páginas o programas.</t>
+        </is>
+      </c>
       <c r="U9" t="inlineStr">
         <is>
           <t>Sí</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="X9" t="n">
@@ -1538,15 +1542,15 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>No se tiene ningún tipo de microprocesador</t>
+          <t>Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>No hay ningún elemento adicional a las micro:bits</t>
+          <t>LEDs</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr"/>
@@ -1557,19 +1561,19 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1581,12 +1585,12 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>d.eus.jorge.mosquera@cali.edu.co</t>
+          <t>camilo.villota.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Cinco</t>
+          <t>Una</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1599,27 +1603,27 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Video proyector</t>
+          <t>No hay más dispositivos en las aulas, Solamente tienen 1 videobeam y un TV de 60'</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>No hay ninguna infraestructura de telecomunicaciones</t>
+          <t>No hay ninguna infraestructura de telecomunicaciones, La antena de MinTIC</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="N10" t="n">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="O10" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>Algunos de ellos</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1632,7 +1636,7 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office), Lenguaje de programación (Ej. MakeCode), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc)</t>
+          <t>Paquete de oficina (Ej. Microsoft Office), Aplicación del Ministerio que inicia automaticamente</t>
         </is>
       </c>
       <c r="T10" t="inlineStr"/>
@@ -1642,7 +1646,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
@@ -1654,50 +1658,42 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>Tarjetas micro:bit.</t>
+          <t>No se tiene ningún tipo de microprocesador</t>
         </is>
       </c>
       <c r="Z10" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>No hay ningún elemento adicional a las micro:bits</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>Tarjetas TecPro</t>
-        </is>
-      </c>
+      <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>TecPro Norma</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>04/05</t>
+          <t>03/05</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -1705,12 +1701,12 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>azriel2397@gmail.com</t>
+          <t>d.eus.jorge.mosquera@cali.edu.co</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Tres</t>
+          <t>Cinco</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1723,31 +1719,27 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Televisor, Video proyector, algunos con video proyector</t>
+          <t>Video proyector</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Módem</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>La red brinda internet solo a las salas de sistemas.</t>
-        </is>
-      </c>
+          <t>No hay ninguna infraestructura de telecomunicaciones</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>97</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Algunos de ellos</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1760,68 +1752,72 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office)</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>La mayoría son obsoletos. El tablero digital no cuenta el cable para su funcionamiento</t>
-        </is>
-      </c>
+          <t>Paquete de oficina (Ej. Microsoft Office), Lenguaje de programación (Ej. MakeCode), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc)</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>No hay, posiblemente.</t>
+          <t>Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>no hay</t>
+          <t>No hay ningún elemento adicional a las micro:bits</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>La conectividad funciona en las salas (3)</t>
+          <t>Tarjetas TecPro</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t xml:space="preserve">No se conoce de recursos para actividades desconectadas. </t>
+          <t>TecPro Norma</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>05/05</t>
+          <t>04/05</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1829,7 +1825,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>monica.cristancho.cfk2022@gmail.com</t>
+          <t>azriel2397@gmail.com</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1847,31 +1843,31 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Televisor</t>
+          <t>Televisor, Video proyector, algunos con video proyector</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Redes eléctricas</t>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Módem</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t xml:space="preserve">En el colegio no hay internet y la red eléctrica esta muy deteriorada. La institución cuenta con una sala de audiovisuales pero generalmente no la utiliza el área de tecnología ni ninguna otra área. </t>
+          <t>La red brinda internet solo a las salas de sistemas.</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="N12" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Algunos de ellos</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1889,7 +1885,7 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Los equipos en su mayoría cuentan con el paquete de office únicamente. </t>
+          <t>La mayoría son obsoletos. El tablero digital no cuenta el cable para su funcionamiento</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -1902,20 +1898,20 @@
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>Tarjetas micro:bit.</t>
+          <t>No hay, posiblemente.</t>
         </is>
       </c>
       <c r="Z12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Kit Chicas Stem Convenio con Maloka</t>
+          <t>no hay</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t xml:space="preserve">El año pasado se trabajó con algunas estudiantes en la estrategias chicas STEM de Maloka y recibieron un kit para la institución  educativa. </t>
+          <t>La conectividad funciona en las salas (3)</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
@@ -1925,7 +1921,7 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
@@ -1935,13 +1931,13 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cuentan con un kit de chicas Stem </t>
+          <t xml:space="preserve">No se conoce de recursos para actividades desconectadas. </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1953,12 +1949,12 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>margaritas_421@hotmail.com</t>
+          <t>monica.cristancho.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Dos</t>
+          <t>Tres</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1971,36 +1967,36 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Televisor, Algunas aulas con TV</t>
+          <t>Televisor</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Puertos de cableado estructurado para conexión a la red</t>
+          <t>Redes eléctricas</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Las salas de sistemas tienen internet intermitente. Sede rural </t>
+          <t xml:space="preserve">En el colegio no hay internet y la red eléctrica esta muy deteriorada. La institución cuenta con una sala de audiovisuales pero generalmente no la utiliza el área de tecnología ni ninguna otra área. </t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="N13" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Algunos de ellos</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Windows 7 o superior (32 bits), Windows 7 o superior (64 bits)</t>
+          <t>Windows 7 o superior (64 bits)</t>
         </is>
       </c>
       <c r="R13" t="n">
@@ -2011,39 +2007,35 @@
           <t>Paquete de oficina (Ej. Microsoft Office)</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr"/>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Los equipos en su mayoría cuentan con el paquete de office únicamente. </t>
+        </is>
+      </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="V13" t="n">
-        <v>9</v>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z13" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>No sabe la docente de informática de primaria</t>
+          <t>Kit Chicas Stem Convenio con Maloka</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entrevista a lider tecnología primaria. Notifica que desconoce que elementos hay en la IE. </t>
+          <t xml:space="preserve">El año pasado se trabajó con algunas estudiantes en la estrategias chicas STEM de Maloka y recibieron un kit para la institución  educativa. </t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
@@ -2053,7 +2045,7 @@
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
@@ -2061,15 +2053,19 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cuentan con un kit de chicas Stem </t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>11/05</t>
+          <t>05/05</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -2077,7 +2073,7 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>lady.mora.cfk2022@gmail.com</t>
+          <t>margaritas_421@hotmail.com</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -2087,7 +2083,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Algunas sí, pero no todas</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -2095,7 +2091,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>No hay más dispositivos en las aulas</t>
+          <t>Televisor, Algunas aulas con TV</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2103,19 +2099,23 @@
           <t>Puertos de cableado estructurado para conexión a la red</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Las salas de sistemas tienen internet intermitente. Sede rural </t>
+        </is>
+      </c>
       <c r="M14" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N14" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>Algunos de ellos</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -2131,18 +2131,14 @@
           <t>Paquete de oficina (Ej. Microsoft Office)</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>Hay dos salas de electrónica, cuentan con algunos elementos y herramientas para la clase.</t>
-        </is>
-      </c>
+      <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
           <t>Sí</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
@@ -2154,18 +2150,22 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>Arduino, Tarjetas micro:bit.</t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="Z14" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>LEDs, Cables cocodrilo, Soldadura electrónica, Cautines, Pinzas</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr"/>
+          <t>No sabe la docente de informática de primaria</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entrevista a lider tecnología primaria. Notifica que desconoce que elementos hay en la IE. </t>
+        </is>
+      </c>
       <c r="AC14" t="inlineStr">
         <is>
           <t>No</t>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -2202,12 +2202,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>No hay salas de sistemas</t>
+          <t>Dos</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Algunas sí, pero no todas</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -2220,31 +2220,27 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>No hay ninguna infraestructura de telecomunicaciones</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>No hay salas de sistemas, ni computadores dentro de la institución educativa.</t>
-        </is>
-      </c>
+          <t>Puertos de cableado estructurado para conexión a la red</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>No hay computador.</t>
+          <t>Windows 7 o superior (32 bits), Windows 7 o superior (64 bits)</t>
         </is>
       </c>
       <c r="R15" t="n">
@@ -2252,33 +2248,41 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Ninguno de los anteriores</t>
+          <t>Paquete de oficina (Ej. Microsoft Office)</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>No hay salas de sistemas, no hay computadores, no hay algún otro dispositivo</t>
+          <t>Hay dos salas de electrónica, cuentan con algunos elementos y herramientas para la clase.</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V15" t="n">
+        <v>15</v>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>Ninguno</t>
+          <t>Arduino, Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z15" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>No hay ningún elemento adicional a las micro:bits</t>
+          <t>LEDs, Cables cocodrilo, Soldadura electrónica, Cautines, Pinzas</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr"/>
@@ -2289,7 +2293,7 @@
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
@@ -2301,11 +2305,11 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>12/05</t>
+          <t>11/05</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -2313,12 +2317,12 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>facilcontar@gmail.com</t>
+          <t>lady.mora.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Dos</t>
+          <t>No hay salas de sistemas</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2331,36 +2335,36 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Televisor</t>
+          <t>No hay más dispositivos en las aulas</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red</t>
+          <t>No hay ninguna infraestructura de telecomunicaciones</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Una sala con cableado red y otro inhalambrado</t>
+          <t>No hay salas de sistemas, ni computadores dentro de la institución educativa.</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Algunos de ellos</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Windows 7 o superior (64 bits)</t>
+          <t>No hay computador.</t>
         </is>
       </c>
       <c r="R16" t="n">
@@ -2368,10 +2372,14 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office)</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr"/>
+          <t>Ninguno de los anteriores</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>No hay salas de sistemas, no hay computadores, no hay algún otro dispositivo</t>
+        </is>
+      </c>
       <c r="U16" t="inlineStr">
         <is>
           <t>No</t>
@@ -2382,15 +2390,15 @@
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ninguno. No sabe </t>
+          <t>Ninguno</t>
         </is>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>No hay ningún elemento adicional a las micro:bits</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr"/>
@@ -2401,7 +2409,7 @@
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
@@ -2409,19 +2417,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>Docente de tecnología aplicada al área técnica, no sabe si hay microbit en el colegio no participó años anteriores.</t>
-        </is>
-      </c>
+      <c r="AF16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>20/05</t>
+          <t>12/05</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -2429,12 +2433,12 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>claudia3dc@gmail.com</t>
+          <t>facilcontar@gmail.com</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Tres</t>
+          <t>Dos</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2447,36 +2451,36 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Sistema de audio, Video proyector, altavoz</t>
+          <t>Televisor</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>No hay ninguna infraestructura de telecomunicaciones, Redes eléctricas, Puertos de cableado estructurado para conexión a la red, conexión a fibra óptica</t>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>el sistema de audio que hay, es a nivel institucional, no por cada aula</t>
+          <t>Una sala con cableado red y otro inhalambrado</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="N17" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>Algunos de ellos</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Windows 7 o superior (64 bits), windows 10</t>
+          <t>Windows 7 o superior (64 bits)</t>
         </is>
       </c>
       <c r="R17" t="n">
@@ -2484,15 +2488,10 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc), Paquete de software educativo (Ej. cursos de inglés)</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>Para el buen desarrollo de la media técnica en Diseño Multimedia y Elaboración de Audiovisuales, se requiere dotación de equipos indispensables, de esto depende que los y las estudiantes puedan adquirir las competencias que les permita alcanzar satisfactoriamente la certificación otorgada por el SENA. 
-A la fecha el aula de sistemas 2, cuenta con un  total de 29 equipos, de ellos 18 cuentan con Procesadores Intel® Core™ i7 de 10ᵃ Generación, aptos para soportar los Software y llevar a cabo los procesos prácticos del plan de estudios, el resto (11) están desactualizados, evidencian el deterioro e insuficiencia propio de un modelo ya en desuso que carece de las especificaciones necesarias para ser utilizados a cabalidad en consonancia con las nuevas tecnologías y las versiones de los programas requeridos.</t>
-        </is>
-      </c>
+          <t>Paquete de oficina (Ej. Microsoft Office)</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
           <t>No</t>
@@ -2503,38 +2502,159 @@
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr">
         <is>
+          <t xml:space="preserve">Ninguno. No sabe </t>
+        </is>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>Docente de tecnología aplicada al área técnica, no sabe si hay microbit en el colegio no participó años anteriores.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>245</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>20/05</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>claudia3dc@gmail.com</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Tres</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Sistema de audio, Video proyector, altavoz</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>No hay ninguna infraestructura de telecomunicaciones, Redes eléctricas, Puertos de cableado estructurado para conexión a la red, conexión a fibra óptica</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>el sistema de audio que hay, es a nivel institucional, no por cada aula</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>127</v>
+      </c>
+      <c r="N18" t="n">
+        <v>100</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Windows 7 o superior (64 bits), windows 10</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Paquete de oficina (Ej. Microsoft Office), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc), Paquete de software educativo (Ej. cursos de inglés)</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Para el buen desarrollo de la media técnica en Diseño Multimedia y Elaboración de Audiovisuales, se requiere dotación de equipos indispensables, de esto depende que los y las estudiantes puedan adquirir las competencias que les permita alcanzar satisfactoriamente la certificación otorgada por el SENA. 
+A la fecha el aula de sistemas 2, cuenta con un  total de 29 equipos, de ellos 18 cuentan con Procesadores Intel® Core™ i7 de 10ᵃ Generación, aptos para soportar los Software y llevar a cabo los procesos prácticos del plan de estudios, el resto (11) están desactualizados, evidencian el deterioro e insuficiencia propio de un modelo ya en desuso que carece de las especificaciones necesarias para ser utilizados a cabalidad en consonancia con las nuevas tecnologías y las versiones de los programas requeridos.</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr">
+        <is>
           <t>No tenemos  NINGUNO</t>
         </is>
       </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="inlineStr">
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="inlineStr">
         <is>
           <t>NO CONTAMOS CON ESTOS ELEMENTOS</t>
         </is>
       </c>
-      <c r="AB17" t="inlineStr">
+      <c r="AB18" t="inlineStr">
         <is>
           <t>En el momento no se cuenta con herramientas para el desarrollo de proyectos de computación física</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AF17" t="inlineStr">
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
         <is>
           <t>No se cuenta con estos elementos en la institución</t>
         </is>
